--- a/src/test/resources/Exceldata/LoginDsAlgo.xlsx
+++ b/src/test/resources/Exceldata/LoginDsAlgo.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\Desktop\NumpyNinja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\Desktop\NumpyNinja\DS ALGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF02D1B-AF36-4999-A93E-611EFB59D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5882B115-CF35-49DF-8A73-D165BE69E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="948" windowWidth="13224" windowHeight="11292" xr2:uid="{E23C2CDC-087D-441A-8A7C-BF1735931C80}"/>
+    <workbookView xWindow="12120" yWindow="948" windowWidth="10920" windowHeight="11292" activeTab="2" xr2:uid="{E23C2CDC-087D-441A-8A7C-BF1735931C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pythonCode" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -44,12 +46,196 @@
     <t>password</t>
   </si>
   <si>
+    <t>Numphysdet94NN</t>
+  </si>
+  <si>
+    <t>sdet94batchNN</t>
+  </si>
+  <si>
+    <t>sdet94batch</t>
+  </si>
+  <si>
+    <t>print("hello");</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>def search(input_list, num):
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12)</t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>submission success</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):
+c=0
+for i in nums:
+j=str(i)
+x=len(j)
+if x%2==0:
+c=c+1
+\b
+\b
+\b
+\b
+print c
+return c
+findNumbers([12,345,2,6,7896])</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+squares_list = []
+for i in range(0, len(nums)):
+square = nums[i] * nums[i];
+squares_list.append(square)
+\b
+\b
+sorted_squares_list = sorted(squares_list)
+print sorted_squares_list;
+return sorted_squares_list;
+sortedSquares([-7,-3,2,3,11])</t>
+  </si>
+  <si>
+    <t>[4, 9, 9, 49, 121]</t>
+  </si>
+  <si>
+    <t>python_Code</t>
+  </si>
+  <si>
+    <t>print("Hello World");</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>def search(input_list, num):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(num in input_list):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  print("Element Found")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  print("Not Found")</t>
+  </si>
+  <si>
+    <t>search([12, 23, 45, 67, 6, 90] , 12)</t>
+  </si>
+  <si>
+    <t>Numphysdet94N</t>
+  </si>
+  <si>
+    <t>sdet94batchN</t>
+  </si>
+  <si>
+    <t>print("DSAlgo");</t>
+  </si>
+  <si>
+    <t>DSAlgo</t>
+  </si>
+  <si>
+    <t>print("NumpyNinja</t>
+  </si>
+  <si>
+    <t>NumpyNinja</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "bananas", "cucumbers", "dates", "strawberries"]
+grocery.append("oranges")
+print (grocery);</t>
+  </si>
+  <si>
+    <t>['apples', 'bananas', 'cucumbers', 'dates', 'strawberries', 'oranges']</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "bananas", "cucumbers", "dates", "strawberries"]
+grocery.append("oranges")
+print[apples]</t>
+  </si>
+  <si>
+    <t>NameError: name 'apples' is not defined on line 3</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "banana", "cucumbers", "dates","strawberries"]
+grocery.insert(2, "carrots")
+print (grocery);</t>
+  </si>
+  <si>
+    <t>['apples', 'banana', 'carrots', 'cucumbers', 'dates', 'strawberries']</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "banana", "cucumbers", "dates","strawberries"]
+grocery.insert(10, Walnuts)
+print (grocery);</t>
+  </si>
+  <si>
+    <t>NameError: name 'Walnuts' is not defined on line 2</t>
+  </si>
+  <si>
+    <t>employee = ["Ann", "Ben", "Cathy", "Daisy", "Snow"]
+employee.append("Bob")
+print[employee]</t>
+  </si>
+  <si>
+    <t>[['Ann', 'Ben', 'Cathy', 'Daisy', 'Snow', 'Bob']]</t>
+  </si>
+  <si>
+    <t>employee = ["Ann", "Ben", "Cathy", "Daisy", "Snow"]
+employee.append("Bob")
+print[employee</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 4</t>
+  </si>
+  <si>
     <t>expectedmessage</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>Please check your password</t>
   </si>
   <si>
@@ -59,23 +245,14 @@
     <t>You are logged in</t>
   </si>
   <si>
-    <t>Numphysdet94NN</t>
-  </si>
-  <si>
-    <t>sdet94batchNN</t>
-  </si>
-  <si>
-    <t>Numpysdet94</t>
-  </si>
-  <si>
-    <t>sdet94batch</t>
+    <t>Invalid Username and Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +266,27 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,14 +294,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2E9D05-32E4-448D-BA13-C8F41D4CAE19}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,6 +654,7 @@
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -450,40 +665,376 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E850FF-EB3D-42F0-9B18-B90E552B59D2}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="204.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130AB626-5E23-4EA3-8450-D028C6DBE8D4}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
